--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Matn1-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Matn1-Itga1.xlsx
@@ -534,22 +534,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1323473333333333</v>
+        <v>0.5187906666666667</v>
       </c>
       <c r="H2">
-        <v>0.397042</v>
+        <v>1.556372</v>
       </c>
       <c r="I2">
-        <v>0.25545453551118</v>
+        <v>0.5259328345599914</v>
       </c>
       <c r="J2">
-        <v>0.25545453551118</v>
+        <v>0.5259328345599914</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>62.07563766666667</v>
+        <v>32.21373866666666</v>
       </c>
       <c r="N2">
-        <v>186.226913</v>
+        <v>96.641216</v>
       </c>
       <c r="O2">
-        <v>0.4556169394345516</v>
+        <v>0.6812298485843321</v>
       </c>
       <c r="P2">
-        <v>0.53808222397892</v>
+        <v>0.7117693664123</v>
       </c>
       <c r="Q2">
-        <v>8.215545110149556</v>
+        <v>16.71218695870578</v>
       </c>
       <c r="R2">
-        <v>73.939905991346</v>
+        <v>150.409682628352</v>
       </c>
       <c r="S2">
-        <v>0.1163894136342788</v>
+        <v>0.3582811452528316</v>
       </c>
       <c r="T2">
-        <v>0.1374555445933577</v>
+        <v>0.3743428804301901</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1323473333333333</v>
+        <v>0.5187906666666667</v>
       </c>
       <c r="H3">
-        <v>0.397042</v>
+        <v>1.556372</v>
       </c>
       <c r="I3">
-        <v>0.25545453551118</v>
+        <v>0.5259328345599914</v>
       </c>
       <c r="J3">
-        <v>0.25545453551118</v>
+        <v>0.5259328345599914</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>25.115256</v>
       </c>
       <c r="O3">
-        <v>0.06144619962548196</v>
+        <v>0.1770389772624213</v>
       </c>
       <c r="P3">
-        <v>0.07256777544435759</v>
+        <v>0.184975630381169</v>
       </c>
       <c r="Q3">
-        <v>1.107979052528</v>
+        <v>4.343186801248001</v>
       </c>
       <c r="R3">
-        <v>9.971811472752002</v>
+        <v>39.08868121123201</v>
       </c>
       <c r="S3">
-        <v>0.01569671038425473</v>
+        <v>0.09311061113922708</v>
       </c>
       <c r="T3">
-        <v>0.01853776736921798</v>
+        <v>0.09728475761088949</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1323473333333333</v>
+        <v>0.5187906666666667</v>
       </c>
       <c r="H4">
-        <v>0.397042</v>
+        <v>1.556372</v>
       </c>
       <c r="I4">
-        <v>0.25545453551118</v>
+        <v>0.5259328345599914</v>
       </c>
       <c r="J4">
-        <v>0.25545453551118</v>
+        <v>0.5259328345599914</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4371553333333333</v>
+        <v>0.5484013333333334</v>
       </c>
       <c r="N4">
-        <v>1.311466</v>
+        <v>1.645204</v>
       </c>
       <c r="O4">
-        <v>0.003208591687778628</v>
+        <v>0.01159714372603029</v>
       </c>
       <c r="P4">
-        <v>0.003789337054374833</v>
+        <v>0.01211704340205096</v>
       </c>
       <c r="Q4">
-        <v>0.05785634261911111</v>
+        <v>0.284505493320889</v>
       </c>
       <c r="R4">
-        <v>0.520707083572</v>
+        <v>2.560549439888</v>
       </c>
       <c r="S4">
-        <v>0.0008196492992465224</v>
+        <v>0.006099318672630729</v>
       </c>
       <c r="T4">
-        <v>0.000968003337120626</v>
+        <v>0.006372750982927103</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1323473333333333</v>
+        <v>0.5187906666666667</v>
       </c>
       <c r="H5">
-        <v>0.397042</v>
+        <v>1.556372</v>
       </c>
       <c r="I5">
-        <v>0.25545453551118</v>
+        <v>0.5259328345599914</v>
       </c>
       <c r="J5">
-        <v>0.25545453551118</v>
+        <v>0.5259328345599914</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>62.6419255</v>
+        <v>6.086836</v>
       </c>
       <c r="N5">
-        <v>125.283851</v>
+        <v>12.173672</v>
       </c>
       <c r="O5">
-        <v>0.4597733257265108</v>
+        <v>0.1287194389184112</v>
       </c>
       <c r="P5">
-        <v>0.3619939357246589</v>
+        <v>0.08965995219214913</v>
       </c>
       <c r="Q5">
-        <v>8.290491794790334</v>
+        <v>3.157793706330667</v>
       </c>
       <c r="R5">
-        <v>49.742950768742</v>
+        <v>18.946762237984</v>
       </c>
       <c r="S5">
-        <v>0.1174511813638963</v>
+        <v>0.06769777937333168</v>
       </c>
       <c r="T5">
-        <v>0.09247299270840668</v>
+        <v>0.0471551128029303</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>21</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.5187906666666667</v>
+      </c>
+      <c r="H6">
+        <v>1.556372</v>
+      </c>
+      <c r="I6">
+        <v>0.5259328345599914</v>
+      </c>
+      <c r="J6">
+        <v>0.5259328345599914</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>0.1323473333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.397042</v>
-      </c>
-      <c r="I6">
-        <v>0.25545453551118</v>
-      </c>
-      <c r="J6">
-        <v>0.25545453551118</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>2.718766</v>
+        <v>0.06689266666666667</v>
       </c>
       <c r="N6">
-        <v>8.156298</v>
+        <v>0.200678</v>
       </c>
       <c r="O6">
-        <v>0.01995494352567695</v>
+        <v>0.001414591508805173</v>
       </c>
       <c r="P6">
-        <v>0.0235667277976885</v>
+        <v>0.001478007612330618</v>
       </c>
       <c r="Q6">
-        <v>0.3598214300573334</v>
+        <v>0.03470329113511111</v>
       </c>
       <c r="R6">
-        <v>3.238392870516</v>
+        <v>0.312329620216</v>
       </c>
       <c r="S6">
-        <v>0.005097580829503633</v>
+        <v>0.0007439801219703996</v>
       </c>
       <c r="T6">
-        <v>0.006020227503076929</v>
+        <v>0.0007773327330542869</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.3857383333333333</v>
+        <v>0.4676293333333333</v>
       </c>
       <c r="H7">
-        <v>1.157215</v>
+        <v>1.402888</v>
       </c>
       <c r="I7">
-        <v>0.74454546448882</v>
+        <v>0.4740671654400085</v>
       </c>
       <c r="J7">
-        <v>0.7445454644888201</v>
+        <v>0.4740671654400086</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>62.07563766666667</v>
+        <v>32.21373866666666</v>
       </c>
       <c r="N7">
-        <v>186.226913</v>
+        <v>96.641216</v>
       </c>
       <c r="O7">
-        <v>0.4556169394345516</v>
+        <v>0.6812298485843321</v>
       </c>
       <c r="P7">
-        <v>0.53808222397892</v>
+        <v>0.7117693664123</v>
       </c>
       <c r="Q7">
-        <v>23.94495301414388</v>
+        <v>15.06408913686755</v>
       </c>
       <c r="R7">
-        <v>215.504577127295</v>
+        <v>135.576802231808</v>
       </c>
       <c r="S7">
-        <v>0.3392275258002728</v>
+        <v>0.3229487033315006</v>
       </c>
       <c r="T7">
-        <v>0.4006266793855623</v>
+        <v>0.3374264859821099</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.3857383333333333</v>
+        <v>0.4676293333333333</v>
       </c>
       <c r="H8">
-        <v>1.157215</v>
+        <v>1.402888</v>
       </c>
       <c r="I8">
-        <v>0.74454546448882</v>
+        <v>0.4740671654400085</v>
       </c>
       <c r="J8">
-        <v>0.7445454644888201</v>
+        <v>0.4740671654400086</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>25.115256</v>
       </c>
       <c r="O8">
-        <v>0.06144619962548196</v>
+        <v>0.1770389772624213</v>
       </c>
       <c r="P8">
-        <v>0.07256777544435759</v>
+        <v>0.184975630381169</v>
       </c>
       <c r="Q8">
-        <v>3.22930566356</v>
+        <v>3.914876806592</v>
       </c>
       <c r="R8">
-        <v>29.06375097204</v>
+        <v>35.233891259328</v>
       </c>
       <c r="S8">
-        <v>0.04574948924122722</v>
+        <v>0.08392836612319417</v>
       </c>
       <c r="T8">
-        <v>0.05403000807513961</v>
+        <v>0.08769087277027955</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.3857383333333333</v>
+        <v>0.4676293333333333</v>
       </c>
       <c r="H9">
-        <v>1.157215</v>
+        <v>1.402888</v>
       </c>
       <c r="I9">
-        <v>0.74454546448882</v>
+        <v>0.4740671654400085</v>
       </c>
       <c r="J9">
-        <v>0.7445454644888201</v>
+        <v>0.4740671654400086</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4371553333333333</v>
+        <v>0.5484013333333334</v>
       </c>
       <c r="N9">
-        <v>1.311466</v>
+        <v>1.645204</v>
       </c>
       <c r="O9">
-        <v>0.003208591687778628</v>
+        <v>0.01159714372603029</v>
       </c>
       <c r="P9">
-        <v>0.003789337054374833</v>
+        <v>0.01211704340205096</v>
       </c>
       <c r="Q9">
-        <v>0.1686275696877778</v>
+        <v>0.2564485499057778</v>
       </c>
       <c r="R9">
-        <v>1.51764812719</v>
+        <v>2.308036949152</v>
       </c>
       <c r="S9">
-        <v>0.002388942388532106</v>
+        <v>0.005497825053399557</v>
       </c>
       <c r="T9">
-        <v>0.002821333717254208</v>
+        <v>0.005744292419123858</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3857383333333333</v>
+        <v>0.4676293333333333</v>
       </c>
       <c r="H10">
-        <v>1.157215</v>
+        <v>1.402888</v>
       </c>
       <c r="I10">
-        <v>0.74454546448882</v>
+        <v>0.4740671654400085</v>
       </c>
       <c r="J10">
-        <v>0.7445454644888201</v>
+        <v>0.4740671654400086</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>62.6419255</v>
+        <v>6.086836</v>
       </c>
       <c r="N10">
-        <v>125.283851</v>
+        <v>12.173672</v>
       </c>
       <c r="O10">
-        <v>0.4597733257265108</v>
+        <v>0.1287194389184112</v>
       </c>
       <c r="P10">
-        <v>0.3619939357246589</v>
+        <v>0.08965995219214913</v>
       </c>
       <c r="Q10">
-        <v>24.16339193916083</v>
+        <v>2.846383060789333</v>
       </c>
       <c r="R10">
-        <v>144.980351634965</v>
+        <v>17.078298364736</v>
       </c>
       <c r="S10">
-        <v>0.3423221443626145</v>
+        <v>0.06102165954507953</v>
       </c>
       <c r="T10">
-        <v>0.2695209430162523</v>
+        <v>0.04250483938921883</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.3857383333333333</v>
+        <v>0.4676293333333333</v>
       </c>
       <c r="H11">
-        <v>1.157215</v>
+        <v>1.402888</v>
       </c>
       <c r="I11">
-        <v>0.74454546448882</v>
+        <v>0.4740671654400085</v>
       </c>
       <c r="J11">
-        <v>0.7445454644888201</v>
+        <v>0.4740671654400086</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.718766</v>
+        <v>0.06689266666666667</v>
       </c>
       <c r="N11">
-        <v>8.156298</v>
+        <v>0.200678</v>
       </c>
       <c r="O11">
-        <v>0.01995494352567695</v>
+        <v>0.001414591508805173</v>
       </c>
       <c r="P11">
-        <v>0.0235667277976885</v>
+        <v>0.001478007612330618</v>
       </c>
       <c r="Q11">
-        <v>1.048732265563333</v>
+        <v>0.03128097311822222</v>
       </c>
       <c r="R11">
-        <v>9.438590390069999</v>
+        <v>0.281528758064</v>
       </c>
       <c r="S11">
-        <v>0.01485736269617332</v>
+        <v>0.0006706113868347732</v>
       </c>
       <c r="T11">
-        <v>0.01754650029461157</v>
+        <v>0.0007006748792763313</v>
       </c>
     </row>
   </sheetData>
